--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC6_SearchResults_Typeahead.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC6_SearchResults_Typeahead.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C0554D-CB4D-4C60-9104-079912BF48AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FAB0EC-AF0F-4CAC-90BE-4F94CFD61AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC6_SearchResults_Typeahead" sheetId="1" r:id="rId1"/>
@@ -89,13 +89,13 @@
     <t>TC6_SearchResults_Typeahead</t>
   </si>
   <si>
-    <t>Showing Results for "sprocket"</t>
-  </si>
-  <si>
     <t>$BaseURL</t>
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>Showing Results for "sprocket"</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -565,7 +565,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -595,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -608,7 +608,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -648,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -680,7 +680,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -693,18 +693,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://ectest.kamandirect.com/storeus/search?term=sprocket" xr:uid="{7B47C256-A4E7-420D-AC32-1971BB4CEB71}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://192.168.15.18/storeus" xr:uid="{A1AB4DF9-5421-4A66-8BFF-76337F5BC948}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://192.168.15.18/storeus" xr:uid="{A1AB4DF9-5421-4A66-8BFF-76337F5BC948}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -905,19 +907,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -942,9 +940,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC6_SearchResults_Typeahead.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC6_SearchResults_Typeahead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FAB0EC-AF0F-4CAC-90BE-4F94CFD61AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5676CFF3-CC7E-45B6-9BD2-1DC78B7584D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC6_SearchResults_Typeahead" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>PRESS_ENTER</t>
   </si>
   <si>
-    <t>ValidSearchHeader</t>
-  </si>
-  <si>
     <t>validSearchV</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Showing Results for "sprocket"</t>
+  </si>
+  <si>
+    <t>ValidSearchHeader1</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -545,7 +545,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -565,7 +565,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -595,23 +595,23 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -648,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -669,7 +669,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -677,15 +677,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>

--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC6_SearchResults_Typeahead.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC6_SearchResults_Typeahead.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5676CFF3-CC7E-45B6-9BD2-1DC78B7584D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618DF398-AF22-4C3F-AD87-DA062081FA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>TestCase</t>
   </si>
@@ -92,10 +92,25 @@
     <t>CSS</t>
   </si>
   <si>
+    <t>WAIT</t>
+  </si>
+  <si>
+    <t>CLICK_PRE_ENTERTEXT</t>
+  </si>
+  <si>
+    <t>EleType1</t>
+  </si>
+  <si>
+    <t>EleType2</t>
+  </si>
+  <si>
+    <t>JSElement</t>
+  </si>
+  <si>
+    <t>ValidSearchHeader1</t>
+  </si>
+  <si>
     <t>Showing Results for "sprocket"</t>
-  </si>
-  <si>
-    <t>ValidSearchHeader1</t>
   </si>
 </sst>
 </file>
@@ -511,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -544,7 +559,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -558,59 +573,90 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="14.25" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -623,7 +669,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -680,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -689,6 +735,22 @@
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -701,12 +763,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -907,15 +966,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -940,10 +1003,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>